--- a/Homework/FluidsHW7.xlsx
+++ b/Homework/FluidsHW7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3384FA9A-9818-45D6-8252-29853D7BA9A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466017E5-EA43-4186-927E-65C324E2B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>Question 1</t>
   </si>
@@ -245,9 +245,6 @@
     <t>friction factor guess</t>
   </si>
   <si>
-    <t>Getting Friction  factor</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>So it is ok</t>
+  </si>
+  <si>
+    <t>Getting Friction factor</t>
   </si>
 </sst>
 </file>
@@ -625,23 +625,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>800</v>
       </c>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A3*42*35.3147/264.17/24/3600</f>
         <v>5.1987335596185964E-2</v>
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>900</v>
       </c>
@@ -744,12 +744,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -769,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.61</v>
       </c>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9/12</f>
         <v>0.13416666666666668</v>
@@ -832,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -843,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A10^2*PI()/4</f>
         <v>1.413771235654532E-2</v>
@@ -863,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M13">
         <f>M12/737.562*1.34102</f>
         <v>-0.3098245118705068</v>
@@ -872,12 +872,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -897,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.0489999999999999</v>
       </c>
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A17/12</f>
         <v>8.7416666666666656E-2</v>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -971,7 +971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>A18^2*PI()/4</f>
         <v>6.0017564194494114E-3</v>
@@ -991,7 +991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M21">
         <f>M20/737.562*1.34102</f>
         <v>-1.7034750093530209</v>
@@ -1000,12 +1000,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>B26*D26</f>
         <v>53.054279831797409</v>
@@ -1084,12 +1084,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>83444.848879223675</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31">
         <f>D30/264.17*35.3147/60</f>
         <v>1.1140143342039848</v>
@@ -1144,7 +1144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A35/$J$25</f>
         <v>1.9870839542970694E-5</v>
@@ -1206,7 +1206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.7499999999999999E-3</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A43/$J$25</f>
         <v>3.7257824143070045E-3</v>
@@ -1292,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>A51/$J$25</f>
         <v>1.4903129657228018E-3</v>
@@ -1378,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1402,12 +1402,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>100</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.5</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>A61/12</f>
         <v>0.125</v>
@@ -1495,7 +1495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>40171.058443084607</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>A62^2*PI()/4</f>
         <v>1.2271846303085129E-2</v>
@@ -1529,28 +1529,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I66">
         <f>I63-I60</f>
         <v>17005.778443084608</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>I66/F59</f>
         <v>272.40701979660895</v>
@@ -1559,10 +1559,10 @@
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>A69/32.174</f>
         <v>8.4666817864303141</v>
@@ -1571,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70">
         <v>9.7794134668770499E-3</v>
@@ -1581,7 +1581,7 @@
         <v>9.8731782291503409E-3</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:I70" si="0">2*((8/F71^12)+1/(F72+F73)^(3/2))^(1/12)</f>
+        <f t="shared" ref="G70:H70" si="0">2*((8/F71^12)+1/(F72+F73)^(3/2))^(1/12)</f>
         <v>9.8748601950446914E-3</v>
       </c>
       <c r="H70">
@@ -1589,9 +1589,9 @@
         <v>9.8748902823623478E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71">
         <f>$A$73/SQRT(E70)</f>
@@ -1602,7 +1602,7 @@
         <v>48231.54056012338</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:I71" si="1">$A$73/SQRT(G70)</f>
+        <f t="shared" ref="G71:H71" si="1">$A$73/SQRT(G70)</f>
         <v>48227.432792551932</v>
       </c>
       <c r="H71">
@@ -1610,12 +1610,12 @@
         <v>48227.359321599135</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72">
         <f>(2.457*LN(1/((7/E71)^0.9+0.27*$C$61)))^16</f>
@@ -1626,7 +1626,7 @@
         <v>2.8313419220141368E+18</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72:I72" si="2">(2.457*LN(1/((7/G71)^0.9+0.27*$C$61)))^16</f>
+        <f t="shared" ref="G72:H72" si="2">(2.457*LN(1/((7/G71)^0.9+0.27*$C$61)))^16</f>
         <v>2.8312729093381908E+18</v>
       </c>
       <c r="H72">
@@ -1634,13 +1634,17 @@
         <v>2.8312716749054203E+18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>SQRT(A69*F59^2*A62^3/2/A59/F63^2)</f>
         <v>4792.472421213748</v>
       </c>
+      <c r="B73">
+        <f>A73^2</f>
+        <v>22967791.908094365</v>
+      </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73">
         <f>(37530/E71)^16</f>
@@ -1651,7 +1655,7 @@
         <v>1.8061710959991106E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:I73" si="3">(37530/G71)^16</f>
+        <f t="shared" ref="G73:H73" si="3">(37530/G71)^16</f>
         <v>1.8086341165889953E-2</v>
       </c>
       <c r="H73">
@@ -1659,7 +1663,7 @@
         <v>1.808678202300331E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -1667,16 +1671,16 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s">
         <v>74</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>75</v>
       </c>
-      <c r="K75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>(1/(-4*LOG10(C61/3.7+1.255/A73)))^2</f>
         <v>9.7794134668770499E-3</v>
@@ -1701,28 +1705,37 @@
         <v>3.1645921226908173E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f>D76*1/(1/264.17*35.3147/60)</f>
+        <v>22.87031516003854</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80">
         <v>62.427827505259842</v>
@@ -1737,7 +1750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>A80*5280</f>
         <v>10560</v>
@@ -1753,15 +1766,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10000</v>
       </c>
@@ -1791,7 +1804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>A84/264.17*35.3147/60</f>
         <v>22.280286684079694</v>
@@ -1810,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>1.8E-3</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D87">
         <f>D86/12</f>
         <v>1.4999999999999999E-4</v>
@@ -1827,17 +1840,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>G85/D80</f>
         <v>2599.6621187796532</v>
@@ -1846,12 +1859,12 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91">
         <v>5.0000000000000001E-3</v>
@@ -1861,7 +1874,7 @@
         <v>3.2002389585277955E-3</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91:H91" si="4">2*((8/E92^12)+1/(E95+E96)^(3/2))^(1/12)</f>
+        <f t="shared" ref="F91:G91" si="4">2*((8/E92^12)+1/(E95+E96)^(3/2))^(1/12)</f>
         <v>3.208385358823178E-3</v>
       </c>
       <c r="G91">
@@ -1869,12 +1882,12 @@
         <v>3.2083261710696576E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92">
         <f>($A$93/D91)^(1/5)</f>
@@ -1885,7 +1898,7 @@
         <v>1434851.9954250804</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:H92" si="5">($A$93/F91)^(1/5)</f>
+        <f t="shared" ref="F92:G92" si="5">($A$93/F91)^(1/5)</f>
         <v>1434122.6086958833</v>
       </c>
       <c r="G92">
@@ -1893,13 +1906,13 @@
         <v>1434127.9000449898</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>32*A90*D80^5*A85^3/PI()^3/A81/D83^5</f>
         <v>1.9463365486965536E+28</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93">
         <f>4*$A$85*$D$80/PI()/$D$83/D92</f>
@@ -1910,7 +1923,7 @@
         <v>1.8370638049427865</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:H93" si="6">4*$A$85*$D$80/PI()/$D$83/F92</f>
+        <f t="shared" ref="F93:G93" si="6">4*$A$85*$D$80/PI()/$D$83/F92</f>
         <v>1.8379981253083457</v>
       </c>
       <c r="G93">
@@ -1918,9 +1931,9 @@
         <v>1.8379913438422453</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D94">
         <f>$D$87/D93</f>
@@ -1931,7 +1944,7 @@
         <v>8.1652036035118327E-5</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:H94" si="7">$D$87/F93</f>
+        <f t="shared" ref="F94:G94" si="7">$D$87/F93</f>
         <v>8.1610529376810833E-5</v>
       </c>
       <c r="G94">
@@ -1939,12 +1952,12 @@
         <v>8.1610830487607828E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D95">
         <f>(2.457*LN(1/((7/D92)^0.9+0.27*D94)))^16</f>
@@ -1955,7 +1968,7 @@
         <v>2.2800677867994688E+22</v>
       </c>
       <c r="F95">
-        <f t="shared" ref="F95:H95" si="8">(2.457*LN(1/((7/F92)^0.9+0.27*F94)))^16</f>
+        <f t="shared" ref="F95:G95" si="8">(2.457*LN(1/((7/F92)^0.9+0.27*F94)))^16</f>
         <v>2.2804043131922569E+22</v>
       </c>
       <c r="G95">
@@ -1963,7 +1976,7 @@
         <v>2.2804018740288045E+22</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>(32*G91*A85^2*A81/PI()^2/A90)^(1/5)</f>
         <v>1.8379913438422444</v>
@@ -1972,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D96">
         <f>(37530/D92)^16</f>
@@ -1983,7 +1996,7 @@
         <v>4.7989180556304071E-26</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:H96" si="9">(37530/F92)^16</f>
+        <f t="shared" ref="F96:G96" si="9">(37530/F92)^16</f>
         <v>4.8381186147651879E-26</v>
       </c>
       <c r="G96">
@@ -1991,7 +2004,7 @@
         <v>4.8378330116056538E-26</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>A96*12</f>
         <v>22.055896126106934</v>
@@ -2000,12 +2013,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22.623999999999999</v>
       </c>
@@ -2013,23 +2026,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>22.623999999999999</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>7.9809502053325998</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103">
         <f>32*G91*A85^2*A81/PI()^2/A104^5</f>
@@ -2051,7 +2064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>A103/12</f>
         <v>1.8853333333333333</v>
@@ -2060,18 +2073,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>A104^2*PI()/4</f>
         <v>2.7916834600963636</v>
@@ -2091,9 +2104,9 @@
         <v>1.3911876786816046E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW7.xlsx
+++ b/Homework/FluidsHW7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466017E5-EA43-4186-927E-65C324E2B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{466017E5-EA43-4186-927E-65C324E2B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ADEC2D1-0920-4C97-82A3-28D3FC333845}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>Question 1</t>
   </si>
@@ -299,13 +299,16 @@
     <t>relative contribution</t>
   </si>
   <si>
-    <t>new viscous losses</t>
-  </si>
-  <si>
     <t>So it is ok</t>
   </si>
   <si>
     <t>Getting Friction factor</t>
+  </si>
+  <si>
+    <t>neg shaft work mass density</t>
+  </si>
+  <si>
+    <t>neg Shaft work</t>
   </si>
 </sst>
 </file>
@@ -358,6 +361,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,23 +632,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>800</v>
       </c>
@@ -685,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A3*42*35.3147/264.17/24/3600</f>
         <v>5.1987335596185964E-2</v>
@@ -736,20 +743,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -763,13 +770,13 @@
         <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.61</v>
       </c>
@@ -782,7 +789,7 @@
       </c>
       <c r="G9">
         <f>2*D12*($A$5/A12)^2*$D$6/A10</f>
-        <v>1344.2899745008413</v>
+        <v>1374.1630850453046</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -795,8 +802,8 @@
         <v>25</v>
       </c>
       <c r="M9">
-        <f>-(G10-J10)</f>
-        <v>-61.781872769964608</v>
+        <f>G10-J10</f>
+        <v>62.710358831519379</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
@@ -809,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>A9/12</f>
         <v>0.13416666666666668</v>
@@ -819,7 +826,7 @@
       </c>
       <c r="G10">
         <f>G9/32.174</f>
-        <v>41.781872769964608</v>
+        <v>42.710358831519379</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -832,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -840,10 +847,10 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A10^2*PI()/4</f>
         <v>1.413771235654532E-2</v>
@@ -857,27 +864,27 @@
       </c>
       <c r="M12">
         <f>M9*P9</f>
-        <v>-170.40371256523744</v>
+        <v>172.96461699982956</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13">
         <f>M12/737.562*1.34102</f>
-        <v>-0.3098245118705068</v>
+        <v>0.31448069543863627</v>
       </c>
       <c r="N13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -891,13 +898,13 @@
         <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.0489999999999999</v>
       </c>
@@ -910,7 +917,7 @@
       </c>
       <c r="G17">
         <f>2*D20*($A$5/A20)^2*$D$6/A18</f>
-        <v>10285.663260684694</v>
+        <v>10514.233555366576</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -923,8 +930,8 @@
         <v>25</v>
       </c>
       <c r="M17">
-        <f>-(G18-J18)</f>
-        <v>-339.68866975460605</v>
+        <f>G18-J18</f>
+        <v>346.79286241581951</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
@@ -937,7 +944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>A17/12</f>
         <v>8.7416666666666656E-2</v>
@@ -947,7 +954,7 @@
       </c>
       <c r="G18">
         <f>G17/32.174</f>
-        <v>319.68866975460605</v>
+        <v>326.79286241581951</v>
       </c>
       <c r="H18" t="s">
         <v>26</v>
@@ -960,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -968,10 +975,10 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>A18^2*PI()/4</f>
         <v>6.0017564194494114E-3</v>
@@ -985,27 +992,27 @@
       </c>
       <c r="M20">
         <f>M17*P17</f>
-        <v>-936.91252542723657</v>
+        <v>956.50695903653968</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M21">
         <f>M20/737.562*1.34102</f>
-        <v>-1.7034750093530209</v>
+        <v>1.7391012039763174</v>
       </c>
       <c r="N21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>B26*D26</f>
         <v>53.054279831797409</v>
@@ -1084,12 +1091,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>83444.848879223675</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D31">
         <f>D30/264.17*35.3147/60</f>
         <v>1.1140143342039848</v>
@@ -1144,7 +1151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>A35/$J$25</f>
         <v>1.9870839542970694E-5</v>
@@ -1206,7 +1213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.7499999999999999E-3</v>
       </c>
@@ -1230,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>A43/$J$25</f>
         <v>3.7257824143070045E-3</v>
@@ -1292,7 +1299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>A51/$J$25</f>
         <v>1.4903129657228018E-3</v>
@@ -1378,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1402,12 +1409,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>100</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.5</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>A61/12</f>
         <v>0.125</v>
@@ -1495,7 +1502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>40171.058443084607</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>A62^2*PI()/4</f>
         <v>1.2271846303085129E-2</v>
@@ -1529,28 +1536,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I66">
         <f>I63-I60</f>
         <v>17005.778443084608</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>I66/F59</f>
         <v>272.40701979660895</v>
@@ -1559,10 +1566,10 @@
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>A69/32.174</f>
         <v>8.4666817864303141</v>
@@ -1581,15 +1588,15 @@
         <v>9.8731782291503409E-3</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:H70" si="0">2*((8/F71^12)+1/(F72+F73)^(3/2))^(1/12)</f>
+        <f t="shared" ref="G70" si="0">2*((8/F71^12)+1/(F72+F73)^(3/2))^(1/12)</f>
         <v>9.8748601950446914E-3</v>
       </c>
       <c r="H70">
-        <f t="shared" si="0"/>
+        <f>2*((8/G71^12)+1/(G72+G73)^(3/2))^(1/12)</f>
         <v>9.8748902823623478E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>70</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>48227.359321599135</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>2.8312716749054203E+18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>SQRT(A69*F59^2*A62^3/2/A59/F63^2)</f>
         <v>4792.472421213748</v>
@@ -1663,7 +1670,7 @@
         <v>1.808678202300331E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>(1/(-4*LOG10(C61/3.7+1.255/A73)))^2</f>
         <v>9.7794134668770499E-3</v>
@@ -1705,7 +1712,7 @@
         <v>3.1645921226908173E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D77">
         <f>D76*1/(1/264.17*35.3147/60)</f>
         <v>22.87031516003854</v>
@@ -1714,12 +1721,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1750,10 +1757,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>A80*5280</f>
-        <v>10560</v>
+        <f>A80*5280+150</f>
+        <v>10710</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -1766,7 +1773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>78</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>10000</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>A84/264.17*35.3147/60</f>
         <v>22.280286684079694</v>
@@ -1823,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>1.8E-3</v>
       </c>
@@ -1831,7 +1838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D87">
         <f>D86/12</f>
         <v>1.4999999999999999E-4</v>
@@ -1840,17 +1847,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>G85/D80</f>
         <v>2599.6621187796532</v>
@@ -1862,7 +1869,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>A90/3.28084/3.28084</f>
+        <v>241.51649835041474</v>
+      </c>
       <c r="C91" t="s">
         <v>69</v>
       </c>
@@ -1871,18 +1882,18 @@
       </c>
       <c r="E91">
         <f>2*((8/D92^12)+1/(D95+D96)^(3/2))^(1/12)</f>
-        <v>3.2002389585277955E-3</v>
+        <v>3.2000551110793907E-3</v>
       </c>
       <c r="F91">
         <f t="shared" ref="F91:G91" si="4">2*((8/E92^12)+1/(E95+E96)^(3/2))^(1/12)</f>
-        <v>3.208385358823178E-3</v>
+        <v>3.2080601534791777E-3</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
-        <v>3.2083261710696576E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.2080027799367729E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -1891,68 +1902,68 @@
       </c>
       <c r="D92">
         <f>($A$93/D91)^(1/5)</f>
-        <v>1312349.7314961585</v>
+        <v>1308652.912937589</v>
       </c>
       <c r="E92">
         <f>($A$93/E91)^(1/5)</f>
-        <v>1434851.9954250804</v>
+        <v>1430826.5345956341</v>
       </c>
       <c r="F92">
         <f t="shared" ref="F92:G92" si="5">($A$93/F91)^(1/5)</f>
-        <v>1434122.6086958833</v>
+        <v>1430111.7552009479</v>
       </c>
       <c r="G92">
         <f t="shared" si="5"/>
-        <v>1434127.9000449898</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1430116.8705325762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>32*A90*D80^5*A85^3/PI()^3/A81/D83^5</f>
-        <v>1.9463365486965536E+28</v>
+        <v>1.919076933168591E+28</v>
       </c>
       <c r="C93" t="s">
         <v>81</v>
       </c>
       <c r="D93">
         <f>4*$A$85*$D$80/PI()/$D$83/D92</f>
-        <v>2.0085458951862205</v>
+        <v>2.0142198440749257</v>
       </c>
       <c r="E93">
         <f>4*$A$85*$D$80/PI()/$D$83/E92</f>
-        <v>1.8370638049427865</v>
+        <v>1.8422321661725987</v>
       </c>
       <c r="F93">
         <f t="shared" ref="F93:G93" si="6">4*$A$85*$D$80/PI()/$D$83/F92</f>
-        <v>1.8379981253083457</v>
+        <v>1.8431529260977022</v>
       </c>
       <c r="G93">
         <f t="shared" si="6"/>
-        <v>1.8379913438422453</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.8431463333928311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>82</v>
       </c>
       <c r="D94">
         <f>$D$87/D93</f>
-        <v>7.4680892460310389E-5</v>
+        <v>7.4470520405825295E-5</v>
       </c>
       <c r="E94">
         <f>$D$87/E93</f>
-        <v>8.1652036035118327E-5</v>
+        <v>8.1422962183772064E-5</v>
       </c>
       <c r="F94">
         <f t="shared" ref="F94:G94" si="7">$D$87/F93</f>
-        <v>8.1610529376810833E-5</v>
+        <v>8.1382286773988915E-5</v>
       </c>
       <c r="G94">
         <f t="shared" si="7"/>
-        <v>8.1610830487607828E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.1382577868292552E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -1961,25 +1972,25 @@
       </c>
       <c r="D95">
         <f>(2.457*LN(1/((7/D92)^0.9+0.27*D94)))^16</f>
-        <v>2.3269159821255146E+22</v>
+        <v>2.327985672696196E+22</v>
       </c>
       <c r="E95">
         <f>(2.457*LN(1/((7/E92)^0.9+0.27*E94)))^16</f>
-        <v>2.2800677867994688E+22</v>
+        <v>2.2819175111245808E+22</v>
       </c>
       <c r="F95">
         <f t="shared" ref="F95:G95" si="8">(2.457*LN(1/((7/F92)^0.9+0.27*F94)))^16</f>
-        <v>2.2804043131922569E+22</v>
+        <v>2.2822440192868358E+22</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
-        <v>2.2804018740288045E+22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.2822416847118497E+22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>(32*G91*A85^2*A81/PI()^2/A90)^(1/5)</f>
-        <v>1.8379913438422444</v>
+        <v>1.8431463333928291</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -1989,36 +2000,36 @@
       </c>
       <c r="D96">
         <f>(37530/D92)^16</f>
-        <v>2.001076274848193E-25</v>
+        <v>2.0934635871163216E-25</v>
       </c>
       <c r="E96">
         <f>(37530/E92)^16</f>
-        <v>4.7989180556304071E-26</v>
+        <v>5.0195555212949409E-26</v>
       </c>
       <c r="F96">
         <f t="shared" ref="F96:G96" si="9">(37530/F92)^16</f>
-        <v>4.8381186147651879E-26</v>
+        <v>5.0598472603767617E-26</v>
       </c>
       <c r="G96">
         <f t="shared" si="9"/>
-        <v>4.8378330116056538E-26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0595576940854866E-26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>A96*12</f>
-        <v>22.055896126106934</v>
+        <v>22.11775600071395</v>
       </c>
       <c r="B97" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>22.623999999999999</v>
       </c>
@@ -2026,23 +2037,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
         <v>84</v>
       </c>
-      <c r="E102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>22.623999999999999</v>
       </c>
@@ -2056,15 +2064,8 @@
       <c r="D103" t="s">
         <v>85</v>
       </c>
-      <c r="E103">
-        <f>32*G91*A85^2*A81/PI()^2/A104^5</f>
-        <v>2289.2513769371949</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>A103/12</f>
         <v>1.8853333333333333</v>
@@ -2072,8 +2073,12 @@
       <c r="B104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f>C103/3.28084</f>
+        <v>2.432593544742383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>A104^2*PI()/4</f>
         <v>2.7916834600963636</v>
@@ -2100,13 +2105,17 @@
         <v>25</v>
       </c>
       <c r="E106">
-        <f>C106/E103</f>
-        <v>1.3911876786816046E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <f>C106/A90</f>
+        <v>1.2250739378757954E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <f>C106/3.28084/3.28084</f>
+        <v>2.958755676961156</v>
+      </c>
       <c r="E107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
